--- a/EVRP3/path.xlsx
+++ b/EVRP3/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\Desktop\EVRP\EVRP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1529F2F4-3882-400B-A03B-52D1AC656F6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACF404-5B58-429B-8076-41AB13E4FC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Obj</t>
   </si>
@@ -85,7 +85,10 @@
     <t>C19</t>
   </si>
   <si>
-    <t>S7 - copy 1</t>
+    <t>S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 </t>
   </si>
 </sst>
 </file>
@@ -619,6 +622,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA86ED4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -653,7 +661,7 @@
           <c:yMode val="edge"/>
           <c:x val="4.1290492001805124E-2"/>
           <c:y val="3.3096932874840918E-2"/>
-          <c:w val="0.92797738469044677"/>
+          <c:w val="0.79016517254807861"/>
           <c:h val="0.9191530163535705"/>
         </c:manualLayout>
       </c:layout>
@@ -664,7 +672,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>macchina1</c:v>
+            <c:v>Vehicle 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -754,7 +762,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -764,6 +771,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.583978977669403E-2"/>
+                  <c:y val="2.8368799607006411E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -787,7 +800,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -802,7 +814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -829,7 +841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -856,7 +868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -977,12 +989,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(Result!$B$5,Result!$C$5,Result!$C$6)</c15:f>
+                <c15:f>(Result!$B$23,Result!$C$5,Result!$C$6)</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>D0</c:v>
-                  </c:pt>
                   <c:pt idx="1">
                     <c:v>C77</c:v>
                   </c:pt>
@@ -1001,7 +1010,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>macchina2</c:v>
+            <c:v>Vehicle 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1053,7 +1062,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1063,6 +1071,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9956926901608488E-2"/>
+                  <c:y val="1.8912533071337664E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1086,7 +1100,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1101,7 +1114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1128,7 +1141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1255,7 +1268,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>macchina3</c:v>
+            <c:v>Vehicle 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1307,7 +1320,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1340,7 +1352,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1373,7 +1384,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1388,7 +1398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1415,7 +1425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1442,7 +1452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1567,7 +1577,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>S1  - copy 4</c:v>
+                    <c:v>S1 </c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>C81</c:v>
@@ -1584,7 +1594,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>macchina4-1</c:v>
+            <c:v>Vehicle 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1637,7 +1647,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1730,7 +1739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1888,9 +1897,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(Result!$D$15:$D$16,Result!$F$15:$F$16)</c:f>
@@ -1941,7 +1947,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:v>D0</c:v>
@@ -1949,22 +1955,22 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="A86ED4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1975,24 +1981,72 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15848404396372337"/>
-                  <c:y val="-0.3144208623109887"/>
+                  <c:x val="-5.2181861661225841E-2"/>
+                  <c:y val="2.2094715678173466E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04F6EB57-5573-4CBC-AB51-0CCDCF98BDCB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="A86ED4"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{B768C3B9-D032-4219-AABD-2B869EE1565E}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="A86ED4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:srgbClr val="A86ED4"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="A86ED4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2001,11 +2055,17 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.3947988911542599E-2"/>
+                      <c:h val="5.3610329965996531E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-49D0-449E-A217-AB9CE4AAEB6A}"/>
+                  <c16:uniqueId val="{00000002-4429-4EF7-A653-7B9264DE3A00}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2025,10 +2085,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="A86ED4"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2048,7 +2105,21 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2080,23 +2151,23 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Result!$C$15</c15:f>
+                <c15:f>Result!$B$5</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>S7 - copy 1</c:v>
+                    <c:v>D0</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4FD8-441D-A869-B6D62590617D}"/>
+              <c16:uniqueId val="{00000001-4429-4EF7-A653-7B9264DE3A00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2237,6 +2308,45 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3178,7 +3288,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>

--- a/EVRP3/path.xlsx
+++ b/EVRP3/path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\Desktop\EVRP\EVRP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACF404-5B58-429B-8076-41AB13E4FC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6E6EB-49C7-4BDA-819E-B2F81068E318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9EEE833-2D8A-46E5-98F9-B9F4B814318D}" type="CELLRANGE">
+                    <a:fld id="{93603EDA-3F29-4082-87C4-C0DBE682B350}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -744,8 +744,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43C4B237-1822-417E-BCB6-42B8AE00E568}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{77BDFA7E-B930-42CE-8B27-56F3FFBFCB53}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -762,6 +762,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -782,7 +783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30CF4218-5BAF-41CD-9646-3FA843F4B233}" type="CELLRANGE">
+                    <a:fld id="{57955B54-F7E3-4A62-9E52-52802C9B49C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1044,7 +1045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB65E376-2B64-4D90-833E-CBD86F595C56}" type="CELLRANGE">
+                    <a:fld id="{F9E7246A-32A6-4E18-9C14-82D5681802E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1082,7 +1083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7B36690-8ED2-441A-981F-059B43665FB9}" type="CELLRANGE">
+                    <a:fld id="{6771CC90-60C1-49AC-B682-445532628314}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1302,7 +1303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C3D0221-6F7B-4BCC-86CE-E894E5A2468C}" type="CELLRANGE">
+                    <a:fld id="{33163958-4F79-4A82-853A-DB94D2BC8101}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1334,8 +1335,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29BB0969-50BD-4BD4-A657-4CD839DE397B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E6CB752A-581E-4A6F-A537-EF521EEC6AD1}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -1352,6 +1353,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1366,8 +1368,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D9CCAC9-22BE-4077-8A46-904539B98AE4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8B6C7F64-0C49-4753-B373-39D09147E91D}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -1384,6 +1386,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1628,7 +1631,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B741A581-ADD3-4F82-90D5-691A91532904}" type="CELLRANGE">
+                    <a:fld id="{EDE52F76-C30F-497A-BF76-7B932A5694F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1667,7 +1670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8871AB94-867B-4C7C-B5B7-44AB48FDB621}" type="CELLRANGE">
+                    <a:fld id="{F4FC7223-5F3C-4D7E-A1D9-3C51EEEA73A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1706,7 +1709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A39801D-91A3-4F5B-9C10-937D3D62B466}" type="CELLRANGE">
+                    <a:fld id="{8CF4237E-9B03-4F14-951E-376E761C404D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1897,6 +1900,189 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87A39A56-73B7-44F8-B95B-D219A00C2BDC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1887-4248-A1E7-E91D894DAB28}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6132632588980101E-3"/>
+                  <c:y val="-7.0921999017516243E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37F88443-A2BD-4838-9262-D65C3AE918C1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1887-4248-A1E7-E91D894DAB28}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1887-4248-A1E7-E91D894DAB28}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1887-4248-A1E7-E91D894DAB28}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(Result!$D$15:$D$16,Result!$F$15:$F$16)</c:f>
@@ -1941,6 +2127,17 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>(Result!$B$18,Result!$B$16)</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="1">
+                    <c:v>S7</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-BBC6-4AA6-B983-D887573D0A23}"/>
             </c:ext>
@@ -3288,7 +3485,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
